--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6685651048.98643</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00363050724942259</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.049939544282158</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4564111877.173049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004105996104878892</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.553218064720149</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8881076083611975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.553218064720149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5839366313.989497</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003350954158762344</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.030202078418357</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,39 +564,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4326513127.107296</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003787239700401858</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9685794492800966</v>
-      </c>
-      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6278717922.597951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002340419126906935</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.664475339464286</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8846336051657532</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-5.664475339464286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6014528580.369133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001204950228947087</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.025208340441114</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6559323754.688338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002653784287140422</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.020190158863798</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6343410469.437989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00424927366928374</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.446924363336053</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8418280772834181</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.446924363336053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -878,39 +704,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2850381411.140321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005662304348823193</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.045040126301352</v>
-      </c>
-      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3300631342.278748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001443617979985577</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7527916010792093</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.943680112660898</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9601431792307416</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.943680112660898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7089515605.810056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001857649123751368</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1697277024479134</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.090817676917347</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.2630464855427421</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.090817676917347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4590047291.286505</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.00292648827694064</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3726224662492802</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.966906451355446</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7494531748740401</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.966906451355446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6328259476.718871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00280327269858936</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9843468356073368</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7155466506.232064</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004368544959962533</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.066429211095073</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8358302596.573216</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003908184420387418</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.647880170779614</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8670548265168215</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-5.647880170779614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5144619111.273197</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003022045975588128</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9977196702279509</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.917781364409687</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.348323186428042</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.917781364409687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6361354737.32427</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009673348638441941</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.531063860331874</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.8776443460238212</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.531063860331874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4619315108.98194</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001544284138647862</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.58498602614043</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8834725684338262</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-5.58498602614043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,39 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>3937086122.247588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001436459832459304</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9129356508973852</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5282047046.669939</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00514528959184924</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9759692633798506</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1430,39 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5770664029.462561</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004960348005708082</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9296472696038397</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7116002192.893085</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00183795657633294</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.514180027223163</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8682378178814901</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.514180027223163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8315041245.498634</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003351759362033384</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.073145430857968</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5108049634.803473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003148871394086314</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.058889955631422</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.34008694085087</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.058889955631422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1614,39 +1152,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5013602757.17344</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001378771915878778</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9503935679171556</v>
-      </c>
-      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6433378750.499965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003922585284030723</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.033186735792708</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5605555490.535073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003633224795578243</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.000891638583376</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5076820428.327621</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00112011736909162</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1876833977745456</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.684104215139429</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.4712646310042847</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.684104215139429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7794104493.29943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003895225305346067</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9541978888243114</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.449023651957732</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.36299848294463</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.449023651957732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5265624368.748329</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003228323930853005</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1407905664499888</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.071845124047089</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-0.3776801843047294</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.071845124047089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1890,39 +1320,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3403670966.778692</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009787534516996601</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.029205269207269</v>
-      </c>
-      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7959726466.083554</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002799072933072798</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9351514459965055</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7349375433.611773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00393086383651023</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.869162658290483</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6577949559.085468</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002592430714615277</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.022200387727149</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7431882002.776638</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002475931458888748</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.575483462214886</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9793469914944476</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-5.575483462214886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5314392907.569582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005430566504297281</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.109820583742112</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,39 +1488,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3174504630.978693</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.0039892464860583</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.0070258633556</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6071919993.904748</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002421534105586957</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9547037649408771</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6984013385.601943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00349814104256905</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2056525937865589</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.769187625869869</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.5286928167623564</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-5.769187625869869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4699355035.788847</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001532507521159696</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.599865087938688</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.8764740508960231</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.599865087938688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6531660174.276878</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003985637164043183</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.896335431047077</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8046958700927583</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.896335431047077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6579882448.752488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004129199221463185</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.698524677531853</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.8846336051657532</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.698524677531853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6265457449.425614</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001617089078855813</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.07853565774285112</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.118708131604727</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.5548355986425183</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.118708131604727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3792433260.980261</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001016293382299135</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.047002644699113</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2534,39 +1712,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11216280741.49871</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003479542986659039</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9373440666992816</v>
-      </c>
-      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,39 +1740,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9925180592.500429</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002093637910408619</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9967811832755126</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5223305666.108294</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00313320331732527</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.019183557573927</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4852115989.914253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004339462022308575</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9317143890474895</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.430559753357224</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.136246398711088</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.430559753357224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5321673715.948041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00303529259825324</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.651764070578253</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9473834721718241</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.651764070578253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5250220805.449757</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004687144826261205</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.059670424604928</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5947011913.512672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001642804083649154</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9547037649408771</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2856,39 +1908,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4468995954.317795</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003284100032774208</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.017167366563661</v>
-      </c>
-      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4185841517.801327</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004638483987711527</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.498898238797434</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8283074992744175</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-5.498898238797434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8686125098.314224</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002714193029118691</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.014135564390464</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5497048316.989755</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002001599973901257</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.006006090067846</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7809833508.846725</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004030140768118493</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9351514459965055</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4488033245.56368</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002877621923660588</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5.430768967178667</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8082375479636547</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-5.430768967178667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6615137011.40985</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003360330218383873</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9720226004453134</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.960878596569092</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.278202761525206</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.960878596569092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3178,39 +2104,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4825288839.309034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004103399809665066</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9449781758701205</v>
-      </c>
-      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6440473820.714548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004017118891026713</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>6.250739546550315</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9364865622150592</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-6.250739546550315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4012147988.54272</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003142978133020031</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9770203883623434</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7356502992.441939</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003722282167822926</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.026209032080462</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3362,39 +2216,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3768353024.665761</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003787367439640534</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9833035424306582</v>
-      </c>
-      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,39 +2244,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4654171485.968276</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004171940656606012</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.098666324930244</v>
-      </c>
-      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5768338507.406087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003613980157442114</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5.615175552947057</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8705989781906501</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-5.615175552947057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,39 +2300,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6404632820.701332</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005108521518760902</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9675191539986375</v>
-      </c>
-      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6962795945.745625</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002471555697166617</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6268413209501773</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.865308436501443</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7411080007972523</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.865308436501443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5471764814.489922</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009499993471333336</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.0810063442678564</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.071426220303612</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.5490235937065407</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.071426220303612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,39 +2384,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5210623484.620573</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003432750464913976</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9749170051079795</v>
-      </c>
-      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3933725503.932547</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003227564752284103</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8970572978859747</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,39 +2440,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8206359047.430187</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002180543638578901</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.137227688065397</v>
-      </c>
-      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6073028040.348965</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009689521096245804</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.560257395865318</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9075424726471375</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.560257395865318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5264313206.957084</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003218536496668994</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9749170051079795</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5779547231.275546</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003179037494393181</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.661987012853182</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8393859894444893</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-5.661987012853182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5586575623.957565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00273871864753572</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.033186735792708</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5358752392.982408</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005155862087714986</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.053842678724586</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6135669952.024813</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003121130408579369</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.615539536023711</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8904160805241774</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.615539536023711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7868222270.310577</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002575067767485701</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5.502032824662986</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9007309933479049</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-5.502032824662986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5458636737.998542</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003164207313887969</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.876101045509838</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9506281880866093</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-5.876101045509838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7157372278.338485</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004542625414923773</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.505052780005804</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9098016333715128</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.505052780005804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4190,39 +2720,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7836403383.251346</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005813292486758221</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.004985282001732</v>
-      </c>
-      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10843756114.96029</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003308171649436084</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9706965653564081</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6517385442.638656</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004494062074343271</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.06160589731283</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4328,39 +2804,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5508238779.344296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003655985585091049</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.0282074936269</v>
-      </c>
-      <c r="N85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8095883427.883435</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001772050177885126</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2296965402717177</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.842505683407572</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.5941212201270878</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.842505683407572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4292279450.925485</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001550473319989519</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2390775957193289</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.983633003891097</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.3736759041793715</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.983633003891097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6523873871.18858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004772802970556989</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8787463731537675</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.931945568861055</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.126182573872377</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.931945568861055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5294388264.478145</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004899908075361993</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.1037904360986429</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5.684403569952646</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.035660896533272</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-5.684403569952646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4825579688.935182</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00371673904580592</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.05472376063986406</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.927998017090011</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.6077482546856894</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.927998017090011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5388759056.475522</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003559919196514926</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.899342797890481</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4650,39 +3000,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5323352375.676546</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00425935560339182</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.121779211285863</v>
-      </c>
-      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6799216950.761815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001430454245319206</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.596157327335874</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-5.596157327335874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6471612759.359411</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001002597079725916</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.082667759705763</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5389908859.818385</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001999855608377717</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.004985282001732</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9531532491.322565</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002385599815783368</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.046021845753444</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6359639220.013718</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003935010883673915</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9885089972398643</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8186846485.806079</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004572208906224242</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5.395570552176823</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8220882752398057</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-5.395570552176823</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3710620667.498482</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005037592892853358</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.014135564390464</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,39 +3224,21 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4721283563.844965</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002363627379329339</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9263290653117745</v>
-      </c>
-      <c r="N100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6721824876.168464</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001133012105231162</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4488670452588379</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.863566551124845</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8646839883790628</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-5.863566551124845</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6685651048.98643</v>
+        <v>2473683956.217439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00363050724942259</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+        <v>0.07663369094243931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0320607355469285</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1236842036.609712</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4564111877.173049</v>
+        <v>2460121712.86862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004105996104878892</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>0.1842838031311772</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05009460150787356</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1230060966.9191</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5839366313.989497</v>
+        <v>4175272304.187971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003350954158762344</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1097192578756007</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02511819667831247</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2087636177.964922</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4326513127.107296</v>
+        <v>2972994392.392847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003787239700401858</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1018081348964151</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05070036989892839</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1486497266.958589</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6278717922.597951</v>
+        <v>2588037967.523822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002340419126906935</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>0.1016104290107671</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04253963713578282</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1294018948.258712</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6014528580.369133</v>
+        <v>2136281089.885954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001204950228947087</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+        <v>0.06339143848611155</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03964297762348086</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1068140591.811672</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6559323754.688338</v>
+        <v>3606433290.373353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002653784287140422</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+        <v>0.1479321236404279</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03310603735623813</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1803216763.943052</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6343410469.437989</v>
+        <v>1547065843.651978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00424927366928374</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
+        <v>0.186677733747428</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0265754584270674</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>773533010.1986992</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>571</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3779763069.342796</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1713457028612241</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03458641451196198</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2850381411.140321</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.005662304348823193</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v>1889881538.837667</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3300631342.278748</v>
+        <v>4189050926.14187</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001443617979985577</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1636366233563841</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04865543953891617</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2094525488.261597</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7089515605.810056</v>
+        <v>2899093184.196346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001857649123751368</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
+        <v>0.1290629024314178</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03855563361055148</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1449546600.227071</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4590047291.286505</v>
+        <v>3848371603.298595</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00292648827694064</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07519783666991514</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02265493869194262</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1924185863.121383</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6328259476.718871</v>
+        <v>2752291734.325104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00280327269858936</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
+        <v>0.1615298838651067</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04326415877597547</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1376145918.910644</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7155466506.232064</v>
+        <v>1787594796.351099</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004368544959962533</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
+        <v>0.1084178495817227</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03856437553993858</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>893797548.3324615</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8358302596.573216</v>
+        <v>1763326506.355221</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003908184420387418</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>0.08842730331573144</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04994481063763937</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>881663349.1743712</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5144619111.273197</v>
+        <v>3405528120.774124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003022045975588128</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>0.1418821384186893</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04513029753924822</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1702764122.83418</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6361354737.32427</v>
+        <v>2453452495.574545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009673348638441941</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
+        <v>0.1431041689761254</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02790430741513167</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1226726315.889759</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4619315108.98194</v>
+        <v>976456374.605446</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001544284138647862</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1529701395021413</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02049107419456635</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>488228210.1526044</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>3937086122.247588</v>
+        <v>2080868686.294335</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001436459832459304</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1041473544054943</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02103478565419971</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1040434360.181759</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5282047046.669939</v>
+        <v>2566673157.139216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00514528959184924</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
+        <v>0.07728446143880154</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04231292973939843</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1283336559.198105</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5770664029.462561</v>
+        <v>3266116041.421042</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004960348005708082</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1021087243339416</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03511309180397411</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1633058065.627583</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7116002192.893085</v>
+        <v>1273251604.492393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00183795657633294</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>0.1677967553268198</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04581988710908262</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>636625825.1814466</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8315041245.498634</v>
+        <v>4132186136.062927</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003351759362033384</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+        <v>0.1469661195205413</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03100318470100676</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2066093025.868504</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5108049634.803473</v>
+        <v>1077410294.503195</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003148871394086314</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>0.11002907589041</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02675397326392531</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>538705192.2468967</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5013602757.17344</v>
+        <v>1447791752.09044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001378771915878778</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09371922693670978</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03816757806201839</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>723895957.0314609</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6433378750.499965</v>
+        <v>3772136379.709983</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003922585284030723</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+        <v>0.1506751266152843</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02139566793068162</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1886068210.628593</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5605555490.535073</v>
+        <v>3563381674.272952</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003633224795578243</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
+        <v>0.1151605344724556</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04847562745770926</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1781690895.955635</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5076820428.327621</v>
+        <v>4142001624.125473</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00112011736909162</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
+        <v>0.1218930346358174</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03108745889746016</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2071000818.263006</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7794104493.29943</v>
+        <v>1552915818.419859</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003895225305346067</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
+        <v>0.08425248492640389</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03632722695917141</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>776457894.732015</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5265624368.748329</v>
+        <v>1071924047.749766</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003228323930853005</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+        <v>0.08342212280288221</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04082221127902268</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>535962004.8692343</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3403670966.778692</v>
+        <v>1249446134.477782</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009787534516996601</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07561110754127465</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03692239227746674</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>624723083.208921</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7959726466.083554</v>
+        <v>2999375933.200148</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002799072933072798</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
+        <v>0.2057184115709905</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04737941498733468</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1499687961.591334</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7349375433.611773</v>
+        <v>1464970235.707051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00393086383651023</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
+        <v>0.07437231830526118</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02312180908083699</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>732485078.6029783</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6577949559.085468</v>
+        <v>863775395.0342056</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002592430714615277</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
+        <v>0.08558547184301912</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03790472351189122</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>431887745.4151246</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7431882002.776638</v>
+        <v>2678212469.9691</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002475931458888748</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
+        <v>0.1461444622119163</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02301008392842436</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1339106241.784001</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5314392907.569582</v>
+        <v>2199094694.677703</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005430566504297281</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+        <v>0.09345203044265613</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03887158372652268</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1099547401.324911</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3174504630.978693</v>
+        <v>1900622871.597064</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0039892464860583</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1069991167677409</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03058115457935152</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>950311427.6851667</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6071919993.904748</v>
+        <v>1903409277.050938</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002421534105586957</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.140664535067433</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02651367989393556</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>951704646.7934204</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6984013385.601943</v>
+        <v>1481335511.607242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00349814104256905</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
+        <v>0.1222001868059752</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04287396430562345</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>740667725.3408991</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4699355035.788847</v>
+        <v>2547739646.559537</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001532507521159696</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
+        <v>0.1610556352304958</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03625066321313515</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1273869842.397837</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6531660174.276878</v>
+        <v>3765499830.022538</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003985637164043183</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
+        <v>0.1062846710358589</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03988976456294512</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1882749927.426832</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6579882448.752488</v>
+        <v>2789108448.727909</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004129199221463185</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
+        <v>0.1430983212517965</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02207657367480557</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1394554243.334285</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6265457449.425614</v>
+        <v>1954602332.437834</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001617089078855813</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
+        <v>0.08856995388167478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02678479616777919</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>977301262.8060454</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3792433260.980261</v>
+        <v>2123264671.660042</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001016293382299135</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
+        <v>0.1516294619317449</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05532277330964707</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1061632338.195746</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11216280741.49871</v>
+        <v>5184877236.154822</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003479542986659039</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
+        <v>0.1248747424546993</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04900450769156725</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2592438654.73932</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9925180592.500429</v>
+        <v>3915017250.240714</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002093637910408619</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+        <v>0.1941910602059344</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03988979593708598</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1957508618.410628</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5223305666.108294</v>
+        <v>3341282509.992289</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00313320331732527</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
+        <v>0.07652300739445808</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03570266594458313</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1670641326.091482</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4852115989.914253</v>
+        <v>1540146225.868558</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004339462022308575</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1574025753237691</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03596171222775457</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>770073137.8370763</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5321673715.948041</v>
+        <v>2731778289.52144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00303529259825324</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
+        <v>0.1619833990158105</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04391835319353249</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1365889222.229164</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5250220805.449757</v>
+        <v>1267382647.825364</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004687144826261205</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1296048861908305</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04952261070842005</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>633691363.8566645</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5947011913.512672</v>
+        <v>4490544815.12981</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001642804083649154</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
+        <v>0.1307213290464553</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06150656922253346</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2245272433.773354</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4468995954.317795</v>
+        <v>3220282461.068036</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003284100032774208</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
+        <v>0.1244396573207551</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02886614231280369</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1610141247.044405</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4185841517.801327</v>
+        <v>4083888314.539875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004638483987711527</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
+        <v>0.1557003581339574</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04123407413724707</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2041944227.042994</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8686125098.314224</v>
+        <v>4910428840.53883</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002714193029118691</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
+        <v>0.2146886265100794</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03037581875450479</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2455214434.817087</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5497048316.989755</v>
+        <v>1387582905.55275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002001599973901257</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.09924696867023862</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0477257513073975</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>693791510.8559386</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7809833508.846725</v>
+        <v>4486990217.047984</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004030140768118493</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
+        <v>0.1470641081542262</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02150624754174461</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2243495237.027235</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4488033245.56368</v>
+        <v>1156826004.804744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002877621923660588</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.144006574702769</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02808742031357528</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>578413058.4229332</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6615137011.40985</v>
+        <v>4154972622.745753</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003360330218383873</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+        <v>0.1262023520204145</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04360156634931396</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2077486275.612495</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4825288839.309034</v>
+        <v>2512768984.631933</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004103399809665066</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1375117374701256</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02795770577492978</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1256384510.853715</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6440473820.714548</v>
+        <v>2081165789.551395</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004017118891026713</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
+        <v>0.1297492610706475</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02025110684071636</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1040582961.299112</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4012147988.54272</v>
+        <v>1319009101.181151</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003142978133020031</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1585426876710684</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03517545335982033</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>659504505.1542051</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7356502992.441939</v>
+        <v>4908043462.084055</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003722282167822926</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
+        <v>0.07556287105813785</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04377892304666117</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2454021752.037878</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3768353024.665761</v>
+        <v>5292243192.860737</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003787367439640534</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1811618852700185</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02750092543311082</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2646121722.54625</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4654171485.968276</v>
+        <v>5308048591.459434</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004171940656606012</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+        <v>0.1158940749167058</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0231947093256668</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2654024234.948178</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5768338507.406087</v>
+        <v>5192355311.905867</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003613980157442114</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1546861145690176</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03546261920473196</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2596177692.031984</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6404632820.701332</v>
+        <v>2487942248.359961</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005108521518760902</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
+        <v>0.06381841301976365</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04602353711273228</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1243971183.322213</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6962795945.745625</v>
+        <v>4089619140.926735</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002471555697166617</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
+        <v>0.1423580293150521</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03401234305029217</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2044809570.953362</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5471764814.489922</v>
+        <v>1801905993.825215</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009499993471333336</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1253418527742066</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05706027548130537</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>900952975.5426835</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5210623484.620573</v>
+        <v>2880903573.963398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003432750464913976</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+        <v>0.09431466126636841</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04689061619670359</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1440451755.242066</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3933725503.932547</v>
+        <v>3944012554.019806</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003227564752284103</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1221093704983403</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02755594322308327</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1972006303.254033</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8206359047.430187</v>
+        <v>2073352798.254633</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002180543638578901</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
+        <v>0.1043848077138332</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0501262629958363</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1036676332.832156</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6073028040.348965</v>
+        <v>3469828316.149483</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009689521096245804</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.1123171963338352</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03421550004493387</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1734914109.535077</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5264313206.957084</v>
+        <v>3982970712.987682</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003218536496668994</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
+        <v>0.1125993082007682</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02932404671555022</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1991485336.048483</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5779547231.275546</v>
+        <v>1909641478.426104</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003179037494393181</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
+        <v>0.1444602405867664</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03779966446707305</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>954820711.0820994</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5586575623.957565</v>
+        <v>5190913574.922776</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00273871864753572</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
+        <v>0.08596318989783834</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03272496019480876</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2595456821.152532</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5358752392.982408</v>
+        <v>1527687928.694224</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005155862087714986</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
+        <v>0.1585834216312262</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02705526996817802</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>763843955.2047747</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6135669952.024813</v>
+        <v>4437147052.899487</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003121130408579369</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
+        <v>0.1366573889843516</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04545689051068372</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2218573460.07149</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7868222270.310577</v>
+        <v>1746145574.212327</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002575067767485701</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1380908055437388</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03687223878554945</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>873072863.5664172</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5458636737.998542</v>
+        <v>4911565285.26348</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003164207313887969</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
+        <v>0.08420478340578104</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02501067483114492</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2455782686.580672</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7157372278.338485</v>
+        <v>4155516387.184376</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004542625414923773</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
+        <v>0.08309906704587235</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02777833100499765</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2077758161.740433</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7836403383.251346</v>
+        <v>5182346790.135344</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005813292486758221</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
+        <v>0.2085698535306251</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02561928934334521</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2591173367.572237</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10843756114.96029</v>
+        <v>1922791323.009436</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003308171649436084</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
+        <v>0.1500108900996323</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03970798879900676</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>961395636.2144721</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6517385442.638656</v>
+        <v>1816894348.502912</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004494062074343271</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
+        <v>0.1186312412483608</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05059574997667313</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>908447205.5622814</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5508238779.344296</v>
+        <v>3184899289.713621</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003655985585091049</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1780376230029393</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03692799785532026</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1592449724.037485</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8095883427.883435</v>
+        <v>2226198399.691921</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001772050177885126</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
+        <v>0.1555610942389306</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0246261633406758</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1113099258.192682</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4292279450.925485</v>
+        <v>1251953774.130225</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001550473319989519</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1450765941361625</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03910862991199716</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>625976955.2496246</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6523873871.18858</v>
+        <v>3354107023.603278</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004772802970556989</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
+        <v>0.1269750925917257</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03545725934767502</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1677053575.321268</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5294388264.478145</v>
+        <v>2217130210.124105</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004899908075361993</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1486164098571379</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03945020009539797</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1108565199.749925</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4825579688.935182</v>
+        <v>1596456959.831891</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00371673904580592</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.09584882180710383</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05139333952008535</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>798228475.3887786</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5388759056.475522</v>
+        <v>1876342407.66467</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003559919196514926</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
+        <v>0.1393436196792324</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0573758379819444</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>938171191.6061248</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5323352375.676546</v>
+        <v>2083355058.393178</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00425935560339182</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.103290593307314</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04669139100809976</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1041677480.833111</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6799216950.761815</v>
+        <v>4936753400.262559</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001430454245319206</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
+        <v>0.08863515699305212</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04437432477212289</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2468376638.64896</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6471612759.359411</v>
+        <v>2493681038.703397</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001002597079725916</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
+        <v>0.1399934884629728</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04096255561756949</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1246840581.077655</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5389908859.818385</v>
+        <v>2106244560.579163</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001999855608377717</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
+        <v>0.09889010918330136</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03365649564281185</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1053122344.428263</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9531532491.322565</v>
+        <v>1927897605.886655</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002385599815783368</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
+        <v>0.1363706932993068</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04197285888118081</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>963948796.9105818</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6359639220.013718</v>
+        <v>3915907891.349722</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003935010883673915</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
+        <v>0.1137941626362605</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02534086260938609</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1957953994.093544</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8186846485.806079</v>
+        <v>3125220946.224564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004572208906224242</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
+        <v>0.1240564526099709</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02849206915500213</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1562610465.600593</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3710620667.498482</v>
+        <v>2966348244.748372</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005037592892853358</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1293887532902335</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0310994600799863</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1483174105.209414</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4721283563.844965</v>
+        <v>3369200071.87277</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002363627379329339</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1711909714565881</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02303833870308561</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1684600055.579139</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6721824876.168464</v>
+        <v>2248308906.314937</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001133012105231162</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
+        <v>0.1520545850931053</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05094894768182737</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1124154442.326006</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2473683956.217439</v>
+        <v>1655819544.709119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07663369094243931</v>
+        <v>0.07277889999651441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0320607355469285</v>
+        <v>0.03179079037601309</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1236842036.609712</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2460121712.86862</v>
+        <v>1866939388.279428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1842838031311772</v>
+        <v>0.1323888711917068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05009460150787356</v>
+        <v>0.0395463241402773</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1230060966.9191</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4175272304.187971</v>
+        <v>4847223260.10096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1097192578756007</v>
+        <v>0.1622145878134529</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02511819667831247</v>
+        <v>0.03671407704587008</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2087636177.964922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2972994392.392847</v>
+        <v>3128968131.841243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1018081348964151</v>
+        <v>0.1065803828703321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05070036989892839</v>
+        <v>0.03216317558987403</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1486497266.958589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2588037967.523822</v>
+        <v>2857261652.159715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1016104290107671</v>
+        <v>0.1402869818438013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04253963713578282</v>
+        <v>0.04933103192758865</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1294018948.258712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2136281089.885954</v>
+        <v>2864839382.047851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06339143848611155</v>
+        <v>0.07406309909128464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03964297762348086</v>
+        <v>0.03945403438241481</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1068140591.811672</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3606433290.373353</v>
+        <v>2752308020.197164</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1479321236404279</v>
+        <v>0.1494704061845668</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03310603735623813</v>
+        <v>0.020320875128769</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1803216763.943052</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1547065843.651978</v>
+        <v>2309012481.698017</v>
       </c>
       <c r="F9" t="n">
-        <v>0.186677733747428</v>
+        <v>0.1234776857506429</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0265754584270674</v>
+        <v>0.03272268744616243</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>773533010.1986992</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3779763069.342796</v>
+        <v>4745189358.065241</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1713457028612241</v>
+        <v>0.1726539050917141</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03458641451196198</v>
+        <v>0.05343477450217599</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1889881538.837667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4189050926.14187</v>
+        <v>3867354003.60251</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1636366233563841</v>
+        <v>0.1524991822773564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04865543953891617</v>
+        <v>0.03522881307182393</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2094525488.261597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2899093184.196346</v>
+        <v>2746807922.368386</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1290629024314178</v>
+        <v>0.1831022451290127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03855563361055148</v>
+        <v>0.05008172132697557</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1449546600.227071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3848371603.298595</v>
+        <v>3355027026.449781</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07519783666991514</v>
+        <v>0.06754280975405143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02265493869194262</v>
+        <v>0.03050489777367478</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1924185863.121383</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2752291734.325104</v>
+        <v>2553335848.039792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1615298838651067</v>
+        <v>0.1596484548084372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04326415877597547</v>
+        <v>0.03110027360314168</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1376145918.910644</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1787594796.351099</v>
+        <v>1432406148.404861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1084178495817227</v>
+        <v>0.07638277991491269</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03856437553993858</v>
+        <v>0.0343162185843011</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>893797548.3324615</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1763326506.355221</v>
+        <v>2094423174.648885</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08842730331573144</v>
+        <v>0.08009819406366672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04994481063763937</v>
+        <v>0.05066036100761947</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>881663349.1743712</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3405528120.774124</v>
+        <v>3858632702.204177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1418821384186893</v>
+        <v>0.1077716433104885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04513029753924822</v>
+        <v>0.04993346125144819</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1702764122.83418</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2453452495.574545</v>
+        <v>2861315409.523374</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1431041689761254</v>
+        <v>0.1722723076126991</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02790430741513167</v>
+        <v>0.02619969472177715</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1226726315.889759</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>976456374.605446</v>
+        <v>1318571887.319082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1529701395021413</v>
+        <v>0.139936265827252</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02049107419456635</v>
+        <v>0.01693760025360149</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488228210.1526044</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2080868686.294335</v>
+        <v>1751545039.855695</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1041473544054943</v>
+        <v>0.1115222969847386</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02103478565419971</v>
+        <v>0.0241774832638683</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1040434360.181759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2566673157.139216</v>
+        <v>1659263521.103689</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07728446143880154</v>
+        <v>0.09774036688114322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04231292973939843</v>
+        <v>0.03201751955938548</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1283336559.198105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3266116041.421042</v>
+        <v>2757198542.65912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021087243339416</v>
+        <v>0.103621466043223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03511309180397411</v>
+        <v>0.04798230826821258</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1633058065.627583</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1273251604.492393</v>
+        <v>1391580202.623647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1677967553268198</v>
+        <v>0.1401742721833109</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04581988710908262</v>
+        <v>0.04571715973087076</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>636625825.1814466</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4132186136.062927</v>
+        <v>2584513150.56741</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1469661195205413</v>
+        <v>0.1356078179171546</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03100318470100676</v>
+        <v>0.03382222969012197</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
         <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2066093025.868504</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1077410294.503195</v>
+        <v>1077023486.4951</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11002907589041</v>
+        <v>0.09176486548345761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02675397326392531</v>
+        <v>0.03059104916080079</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>538705192.2468967</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1447791752.09044</v>
+        <v>1034281109.948</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09371922693670978</v>
+        <v>0.07713333568503832</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03816757806201839</v>
+        <v>0.02733990216570957</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>723895957.0314609</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3772136379.709983</v>
+        <v>2841630489.472306</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1506751266152843</v>
+        <v>0.1275577959926996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02139566793068162</v>
+        <v>0.02416821025586332</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1886068210.628593</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3563381674.272952</v>
+        <v>2400344538.559657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1151605344724556</v>
+        <v>0.1048388098910863</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04847562745770926</v>
+        <v>0.03831730026786195</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1781690895.955635</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4142001624.125473</v>
+        <v>4689749428.593563</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1218930346358174</v>
+        <v>0.1172085566371764</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03108745889746016</v>
+        <v>0.03858150583962432</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2071000818.263006</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1552915818.419859</v>
+        <v>1805548055.379789</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08425248492640389</v>
+        <v>0.08435511264276437</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03632722695917141</v>
+        <v>0.03028334089698321</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>776457894.732015</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1071924047.749766</v>
+        <v>944512179.7968726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08342212280288221</v>
+        <v>0.0881365034944263</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04082221127902268</v>
+        <v>0.03263424975124905</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>535962004.8692343</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1249446134.477782</v>
+        <v>1417906569.92156</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07561110754127465</v>
+        <v>0.07348129400601419</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03692239227746674</v>
+        <v>0.0298556141167536</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>624723083.208921</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2999375933.200148</v>
+        <v>1952955663.358356</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2057184115709905</v>
+        <v>0.1645168694451532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04737941498733468</v>
+        <v>0.04028823452498946</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1499687961.591334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1464970235.707051</v>
+        <v>1355883669.604955</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07437231830526118</v>
+        <v>0.1056114072912583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312180908083699</v>
+        <v>0.02557626682707649</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>732485078.6029783</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>863775395.0342056</v>
+        <v>1278238732.092952</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08558547184301912</v>
+        <v>0.07746235692517241</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03790472351189122</v>
+        <v>0.03608271467261379</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>431887745.4151246</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2678212469.9691</v>
+        <v>2535267597.786176</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1461444622119163</v>
+        <v>0.1200290635506281</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02301008392842436</v>
+        <v>0.01798984380718374</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1339106241.784001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2199094694.677703</v>
+        <v>2558134299.894675</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09345203044265613</v>
+        <v>0.1059245621033065</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03887158372652268</v>
+        <v>0.02964935814233498</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1099547401.324911</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1900622871.597064</v>
+        <v>1421657651.064431</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1069991167677409</v>
+        <v>0.07877320349091502</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03058115457935152</v>
+        <v>0.03637597720437182</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>950311427.6851667</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1903409277.050938</v>
+        <v>1471310286.318867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140664535067433</v>
+        <v>0.1760766103239094</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02651367989393556</v>
+        <v>0.02523112116332579</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>951704646.7934204</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1481335511.607242</v>
+        <v>1439111575.944828</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1222001868059752</v>
+        <v>0.1569166814004276</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04287396430562345</v>
+        <v>0.04062954074939873</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>740667725.3408991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2547739646.559537</v>
+        <v>1999103272.159945</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1610556352304958</v>
+        <v>0.1232470192079877</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03625066321313515</v>
+        <v>0.04007986397418498</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1273869842.397837</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3765499830.022538</v>
+        <v>3524331988.401464</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1062846710358589</v>
+        <v>0.1041279780860892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03988976456294512</v>
+        <v>0.03318817075601212</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1882749927.426832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2789108448.727909</v>
+        <v>2424272971.948857</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1430983212517965</v>
+        <v>0.2010370217454299</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02207657367480557</v>
+        <v>0.02434144805436493</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1394554243.334285</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1954602332.437834</v>
+        <v>2362529789.869118</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08856995388167478</v>
+        <v>0.071958197232235</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02678479616777919</v>
+        <v>0.03021237971646807</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>977301262.8060454</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2123264671.660042</v>
+        <v>1747854613.356613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1516294619317449</v>
+        <v>0.1950934994932913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05532277330964707</v>
+        <v>0.04727028905532549</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1061632338.195746</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5184877236.154822</v>
+        <v>5349900882.90022</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1248747424546993</v>
+        <v>0.1369678411972574</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04900450769156725</v>
+        <v>0.04972322579330917</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2592438654.73932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3915017250.240714</v>
+        <v>4455268214.354338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1941910602059344</v>
+        <v>0.1636140635093592</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03988979593708598</v>
+        <v>0.05673013169325046</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1957508618.410628</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3341282509.992289</v>
+        <v>4427220879.793702</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07652300739445808</v>
+        <v>0.07940669845811932</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03570266594458313</v>
+        <v>0.03706773774855446</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1670641326.091482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1540146225.868558</v>
+        <v>1546027726.459424</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1574025753237691</v>
+        <v>0.1598474163856898</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03596171222775457</v>
+        <v>0.0321145466605814</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>770073137.8370763</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2731778289.52144</v>
+        <v>4164846606.880677</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1619833990158105</v>
+        <v>0.1514255508119673</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04391835319353249</v>
+        <v>0.04827735516677302</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1365889222.229164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1267382647.825364</v>
+        <v>1231877721.674099</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1296048861908305</v>
+        <v>0.1641862793743487</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04952261070842005</v>
+        <v>0.04083282401510435</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>633691363.8566645</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4490544815.12981</v>
+        <v>3371272315.267053</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1307213290464553</v>
+        <v>0.1305339070476054</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06150656922253346</v>
+        <v>0.04788375535045272</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2245272433.773354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3220282461.068036</v>
+        <v>2420909229.652657</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1244396573207551</v>
+        <v>0.1787252491139567</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02886614231280369</v>
+        <v>0.0312544567688846</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1610141247.044405</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4083888314.539875</v>
+        <v>4862048314.248541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1557003581339574</v>
+        <v>0.1547224423250051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04123407413724707</v>
+        <v>0.05161144721983461</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2041944227.042994</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4910428840.53883</v>
+        <v>3270439870.324803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2146886265100794</v>
+        <v>0.1796630125362407</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03037581875450479</v>
+        <v>0.01960794905676732</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2455214434.817087</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1387582905.55275</v>
+        <v>1425424545.499974</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09924696867023862</v>
+        <v>0.1066697572073363</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0477257513073975</v>
+        <v>0.05146677864949409</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>693791510.8559386</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4486990217.047984</v>
+        <v>3570892768.890097</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1470641081542262</v>
+        <v>0.1753268416478803</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02150624754174461</v>
+        <v>0.02566727864728067</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2243495237.027235</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1156826004.804744</v>
+        <v>1802785420.706584</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144006574702769</v>
+        <v>0.1388656462129438</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02808742031357528</v>
+        <v>0.03722461135749051</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>578413058.4229332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4154972622.745753</v>
+        <v>3809606473.436585</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1262023520204145</v>
+        <v>0.1217150833439084</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04360156634931396</v>
+        <v>0.0428108690761892</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2077486275.612495</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2512768984.631933</v>
+        <v>3672444655.632999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1375117374701256</v>
+        <v>0.1455204277330791</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02795770577492978</v>
+        <v>0.03268711461466078</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1256384510.853715</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2081165789.551395</v>
+        <v>3404797554.195972</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1297492610706475</v>
+        <v>0.1319926108673294</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02025110684071636</v>
+        <v>0.03294468890778422</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1040582961.299112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1319009101.181151</v>
+        <v>1497717472.09407</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1585426876710684</v>
+        <v>0.1635877577917409</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03517545335982033</v>
+        <v>0.0348435813931602</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>659504505.1542051</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4908043462.084055</v>
+        <v>5031883116.352911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07556287105813785</v>
+        <v>0.07403044153132612</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04377892304666117</v>
+        <v>0.03206331553435136</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2454021752.037878</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5292243192.860737</v>
+        <v>5161245649.068971</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1811618852700185</v>
+        <v>0.1577563890052483</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02750092543311082</v>
+        <v>0.02531950412494759</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2646121722.54625</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5308048591.459434</v>
+        <v>5355689287.788037</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158940749167058</v>
+        <v>0.1093894647360478</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0231947093256668</v>
+        <v>0.03164814688404378</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2654024234.948178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5192355311.905867</v>
+        <v>5456268251.399076</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1546861145690176</v>
+        <v>0.1027420422960837</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03546261920473196</v>
+        <v>0.03987755075646293</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2596177692.031984</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2487942248.359961</v>
+        <v>2943017469.387735</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06381841301976365</v>
+        <v>0.0817957272071617</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04602353711273228</v>
+        <v>0.03361687044817922</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1243971183.322213</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4089619140.926735</v>
+        <v>5326482013.981086</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1423580293150521</v>
+        <v>0.1415582090948407</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03401234305029217</v>
+        <v>0.04804077420570058</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
         <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2044809570.953362</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1801905993.825215</v>
+        <v>2146335640.678123</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1253418527742066</v>
+        <v>0.1463151591659441</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05706027548130537</v>
+        <v>0.04335755795829842</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>900952975.5426835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2880903573.963398</v>
+        <v>2501155523.283293</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09431466126636841</v>
+        <v>0.1015795745648791</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04689061619670359</v>
+        <v>0.04317525582035877</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1440451755.242066</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3944012554.019806</v>
+        <v>3986733355.464113</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1221093704983403</v>
+        <v>0.1774191461152248</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02755594322308327</v>
+        <v>0.03379909660228476</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1972006303.254033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2073352798.254633</v>
+        <v>1656458581.023189</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1043848077138332</v>
+        <v>0.06781182712310467</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0501262629958363</v>
+        <v>0.03236184451241048</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1036676332.832156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3469828316.149483</v>
+        <v>2477678695.955332</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1123171963338352</v>
+        <v>0.09802814034719248</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03421550004493387</v>
+        <v>0.05126857198204627</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1734914109.535077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3982970712.987682</v>
+        <v>3163241276.461326</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1125993082007682</v>
+        <v>0.1503037347715965</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02932404671555022</v>
+        <v>0.03304117668191811</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1991485336.048483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1909641478.426104</v>
+        <v>1791202708.356924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1444602405867664</v>
+        <v>0.1311608487685372</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03779966446707305</v>
+        <v>0.03312090454900064</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>954820711.0820994</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5190913574.922776</v>
+        <v>5328078910.377786</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08596318989783834</v>
+        <v>0.1133831986589428</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03272496019480876</v>
+        <v>0.02201013239287273</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2595456821.152532</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1527687928.694224</v>
+        <v>1535964541.845776</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1585834216312262</v>
+        <v>0.1261818258340354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02705526996817802</v>
+        <v>0.01932134382311633</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>763843955.2047747</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4437147052.899487</v>
+        <v>3564311841.343469</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1366573889843516</v>
+        <v>0.1036654226958533</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04545689051068372</v>
+        <v>0.03968810099512984</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2218573460.07149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746145574.212327</v>
+        <v>1890057275.960323</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1380908055437388</v>
+        <v>0.1489758390087983</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03687223878554945</v>
+        <v>0.03529575776782213</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>873072863.5664172</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4911565285.26348</v>
+        <v>5345881189.819053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08420478340578104</v>
+        <v>0.08415244386183557</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02501067483114492</v>
+        <v>0.0242938122839922</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2455782686.580672</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4155516387.184376</v>
+        <v>3593299530.683566</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08309906704587235</v>
+        <v>0.1048500653581756</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02777833100499765</v>
+        <v>0.02234248149334576</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2077758161.740433</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5182346790.135344</v>
+        <v>4644008167.278904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2085698535306251</v>
+        <v>0.2040803753465526</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02561928934334521</v>
+        <v>0.02258062070391679</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2591173367.572237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1922791323.009436</v>
+        <v>1632010295.431334</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1500108900996323</v>
+        <v>0.1448193607854841</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03970798879900676</v>
+        <v>0.03678793659232004</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>961395636.2144721</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1816894348.502912</v>
+        <v>2143236068.315697</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1186312412483608</v>
+        <v>0.120084274344483</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05059574997667313</v>
+        <v>0.04942772946679143</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>908447205.5622814</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3184899289.713621</v>
+        <v>2702866210.232945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1780376230029393</v>
+        <v>0.1304984757726017</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03692799785532026</v>
+        <v>0.05405383405421729</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1592449724.037485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2226198399.691921</v>
+        <v>1938542337.272429</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555610942389306</v>
+        <v>0.1661731316051587</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0246261633406758</v>
+        <v>0.01822701151342013</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1113099258.192682</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1251953774.130225</v>
+        <v>1028934402.423774</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1450765941361625</v>
+        <v>0.1488370843797645</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03910862991199716</v>
+        <v>0.04218190241992539</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>625976955.2496246</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3354107023.603278</v>
+        <v>2687475988.210958</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1269750925917257</v>
+        <v>0.174795225265131</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03545725934767502</v>
+        <v>0.02742256265996519</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1677053575.321268</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2217130210.124105</v>
+        <v>3207287687.857128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1486164098571379</v>
+        <v>0.1456973339486965</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03945020009539797</v>
+        <v>0.03299866892062897</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1108565199.749925</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1596456959.831891</v>
+        <v>1583151972.666214</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09584882180710383</v>
+        <v>0.1277376610681421</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05139333952008535</v>
+        <v>0.03642258473066142</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>798228475.3887786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1876342407.66467</v>
+        <v>1675495528.612414</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1393436196792324</v>
+        <v>0.1203248125756812</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0573758379819444</v>
+        <v>0.04474317887156706</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>938171191.6061248</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2083355058.393178</v>
+        <v>1834955126.976395</v>
       </c>
       <c r="F92" t="n">
-        <v>0.103290593307314</v>
+        <v>0.08880226095189227</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04669139100809976</v>
+        <v>0.04466057541229045</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
         <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1041677480.833111</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4936753400.262559</v>
+        <v>3718716820.360785</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08863515699305212</v>
+        <v>0.1352112190510338</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437432477212289</v>
+        <v>0.0537208253490625</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
         <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2468376638.64896</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2493681038.703397</v>
+        <v>1757362310.598722</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1399934884629728</v>
+        <v>0.1500500517373049</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04096255561756949</v>
+        <v>0.03998866475964535</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1246840581.077655</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2106244560.579163</v>
+        <v>2040233820.43579</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09889010918330136</v>
+        <v>0.1062384449610701</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03365649564281185</v>
+        <v>0.05139151937385296</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1053122344.428263</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1927897605.886655</v>
+        <v>2227392459.720002</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1363706932993068</v>
+        <v>0.1369600113866497</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04197285888118081</v>
+        <v>0.03642810176615579</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>963948796.9105818</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3915907891.349722</v>
+        <v>3709710630.041292</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1137941626362605</v>
+        <v>0.15318311876838</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02534086260938609</v>
+        <v>0.02174084787618512</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1957953994.093544</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3125220946.224564</v>
+        <v>3877154756.686779</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1240564526099709</v>
+        <v>0.1034620976798489</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02849206915500213</v>
+        <v>0.03064930648625593</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1562610465.600593</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2966348244.748372</v>
+        <v>3294810373.45008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1293887532902335</v>
+        <v>0.1183869717047165</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0310994600799863</v>
+        <v>0.03121201701746194</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1483174105.209414</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3369200071.87277</v>
+        <v>3446247856.695843</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1711909714565881</v>
+        <v>0.1437028117426348</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02303833870308561</v>
+        <v>0.02016970069881687</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1684600055.579139</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2248308906.314937</v>
+        <v>3067301614.851508</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1520545850931053</v>
+        <v>0.1734661655446886</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05094894768182737</v>
+        <v>0.04538399826509242</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1124154442.326006</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1655819544.709119</v>
+        <v>1683988254.576964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07277889999651441</v>
+        <v>0.1001285232228016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03179079037601309</v>
+        <v>0.03812558599731125</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1866939388.279428</v>
+        <v>2157702725.353041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1323888711917068</v>
+        <v>0.1435747063267876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0395463241402773</v>
+        <v>0.03533146015374271</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4847223260.10096</v>
+        <v>5201321590.573681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1622145878134529</v>
+        <v>0.1231390926347989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03671407704587008</v>
+        <v>0.02860997473858395</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3128968131.841243</v>
+        <v>4036439916.101499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065803828703321</v>
+        <v>0.1039803620540932</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03216317558987403</v>
+        <v>0.04320389180929982</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2857261652.159715</v>
+        <v>2459103653.982882</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1402869818438013</v>
+        <v>0.1358361786111334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04933103192758865</v>
+        <v>0.03982846938225938</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2864839382.047851</v>
+        <v>3069052394.479743</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07406309909128464</v>
+        <v>0.06379146245478311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03945403438241481</v>
+        <v>0.04384940124869739</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2752308020.197164</v>
+        <v>3256297505.62686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1494704061845668</v>
+        <v>0.1804300468833827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.020320875128769</v>
+        <v>0.03344454855152878</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2309012481.698017</v>
+        <v>2043392873.496021</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1234776857506429</v>
+        <v>0.1854180898275517</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03272268744616243</v>
+        <v>0.03224939467230015</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4745189358.065241</v>
+        <v>4922824692.303323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1726539050917141</v>
+        <v>0.1670952716702994</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05343477450217599</v>
+        <v>0.05187240202611716</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3867354003.60251</v>
+        <v>3845906531.975403</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1524991822773564</v>
+        <v>0.1410765396858627</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03522881307182393</v>
+        <v>0.03458346734817687</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2746807922.368386</v>
+        <v>3114219176.358608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1831022451290127</v>
+        <v>0.140002284386387</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05008172132697557</v>
+        <v>0.04283937633222749</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3355027026.449781</v>
+        <v>5197090062.920002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06754280975405143</v>
+        <v>0.09550469888854465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03050489777367478</v>
+        <v>0.0260400192581478</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2553335848.039792</v>
+        <v>3791211638.361634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1596484548084372</v>
+        <v>0.1290113885363229</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03110027360314168</v>
+        <v>0.04197451724342855</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1432406148.404861</v>
+        <v>1686029761.227468</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07638277991491269</v>
+        <v>0.07996239188594999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0343162185843011</v>
+        <v>0.04047050629357136</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2094423174.648885</v>
+        <v>2871898812.773665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08009819406366672</v>
+        <v>0.1140583477388581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05066036100761947</v>
+        <v>0.04900543829694662</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3858632702.204177</v>
+        <v>3503402872.195954</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1077716433104885</v>
+        <v>0.1296242783760751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04993346125144819</v>
+        <v>0.03562205503390658</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2861315409.523374</v>
+        <v>2621745632.90428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1722723076126991</v>
+        <v>0.1302361897920901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02619969472177715</v>
+        <v>0.02719191055201056</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1318571887.319082</v>
+        <v>1314232568.642625</v>
       </c>
       <c r="F19" t="n">
-        <v>0.139936265827252</v>
+        <v>0.120994778302816</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01693760025360149</v>
+        <v>0.02224866029789686</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1751545039.855695</v>
+        <v>1805324630.764219</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1115222969847386</v>
+        <v>0.1398922634016504</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0241774832638683</v>
+        <v>0.02876122399371423</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1659263521.103689</v>
+        <v>2075507424.498924</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09774036688114322</v>
+        <v>0.08435550342865351</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03201751955938548</v>
+        <v>0.03231640253546565</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2757198542.65912</v>
+        <v>3417132755.523184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.103621466043223</v>
+        <v>0.1433276594884584</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04798230826821258</v>
+        <v>0.05179676431112733</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1391580202.623647</v>
+        <v>1420712740.37483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1401742721833109</v>
+        <v>0.1442537829565782</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04571715973087076</v>
+        <v>0.04954669330841656</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2584513150.56741</v>
+        <v>3739514445.743761</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1356078179171546</v>
+        <v>0.134391850204785</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03382222969012197</v>
+        <v>0.02599991704927585</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1077023486.4951</v>
+        <v>896770056.3259122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09176486548345761</v>
+        <v>0.08953748133127776</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03059104916080079</v>
+        <v>0.03089913534387981</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1034281109.948</v>
+        <v>1281191242.519578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07713333568503832</v>
+        <v>0.1039303872590008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02733990216570957</v>
+        <v>0.03235057941004607</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2841630489.472306</v>
+        <v>3450881851.283724</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1275577959926996</v>
+        <v>0.1556290821406444</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02416821025586332</v>
+        <v>0.01727736403654848</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2400344538.559657</v>
+        <v>3163413658.874546</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1048388098910863</v>
+        <v>0.1279349704061183</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03831730026786195</v>
+        <v>0.04543342617054982</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4689749428.593563</v>
+        <v>5609704303.089056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1172085566371764</v>
+        <v>0.1447803858888957</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03858150583962432</v>
+        <v>0.02884268053479356</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1805548055.379789</v>
+        <v>2074181889.008494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08435511264276437</v>
+        <v>0.1041444423879356</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03028334089698321</v>
+        <v>0.02712629886297904</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>944512179.7968726</v>
+        <v>1377810858.754098</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0881365034944263</v>
+        <v>0.06858406151283546</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03263424975124905</v>
+        <v>0.03928527090156425</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1417906569.92156</v>
+        <v>1403948899.691185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07348129400601419</v>
+        <v>0.1011916464218036</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0298556141167536</v>
+        <v>0.03099803254201667</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1952955663.358356</v>
+        <v>2451518102.912957</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1645168694451532</v>
+        <v>0.186259788499686</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04028823452498946</v>
+        <v>0.05576370973843533</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1355883669.604955</v>
+        <v>1000996037.866791</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1056114072912583</v>
+        <v>0.07604051254519893</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02557626682707649</v>
+        <v>0.02100211750969031</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1278238732.092952</v>
+        <v>1153687126.384075</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07746235692517241</v>
+        <v>0.1160126805950023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03608271467261379</v>
+        <v>0.0369602540792294</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2535267597.786176</v>
+        <v>2788415434.864747</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1200290635506281</v>
+        <v>0.1541832669271604</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01798984380718374</v>
+        <v>0.0175149072860339</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2558134299.894675</v>
+        <v>2936679668.954493</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059245621033065</v>
+        <v>0.09717595163426611</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02964935814233498</v>
+        <v>0.03917175569260046</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1421657651.064431</v>
+        <v>1671903586.08021</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07877320349091502</v>
+        <v>0.1218679308762844</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03637597720437182</v>
+        <v>0.02795990806503905</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1471310286.318867</v>
+        <v>1793214524.726934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760766103239094</v>
+        <v>0.1446349763121587</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02523112116332579</v>
+        <v>0.03230655563867486</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439111575.944828</v>
+        <v>1274298419.255019</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1569166814004276</v>
+        <v>0.1031675862328941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04062954074939873</v>
+        <v>0.04358446749433256</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1999103272.159945</v>
+        <v>2842967748.841234</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1232470192079877</v>
+        <v>0.1133036725647849</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04007986397418498</v>
+        <v>0.04154985136803115</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3524331988.401464</v>
+        <v>3591498845.829353</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1041279780860892</v>
+        <v>0.1185443365275127</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03318817075601212</v>
+        <v>0.04042076868306166</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2424272971.948857</v>
+        <v>3045325021.838453</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2010370217454299</v>
+        <v>0.1858243483025127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02434144805436493</v>
+        <v>0.02313106316951245</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2362529789.869118</v>
+        <v>1766833987.536292</v>
       </c>
       <c r="F44" t="n">
-        <v>0.071958197232235</v>
+        <v>0.09634773884974558</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03021237971646807</v>
+        <v>0.02832522369530271</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1747854613.356613</v>
+        <v>1873600630.009479</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1950934994932913</v>
+        <v>0.154935335844925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04727028905532549</v>
+        <v>0.03543287896719129</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5349900882.90022</v>
+        <v>3926382925.946911</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369678411972574</v>
+        <v>0.113373788985235</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04972322579330917</v>
+        <v>0.05774036967037519</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4455268214.354338</v>
+        <v>4670501275.146169</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1636140635093592</v>
+        <v>0.1302190222578248</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05673013169325046</v>
+        <v>0.04573319055960421</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4427220879.793702</v>
+        <v>4426699391.946234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07940669845811932</v>
+        <v>0.1102041606284739</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03706773774855446</v>
+        <v>0.03453840383898772</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1546027726.459424</v>
+        <v>1836347278.405663</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1598474163856898</v>
+        <v>0.1654089097535409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0321145466605814</v>
+        <v>0.03488095190769713</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4164846606.880677</v>
+        <v>3430499131.629971</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1514255508119673</v>
+        <v>0.1106617644326383</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04827735516677302</v>
+        <v>0.03344310804701381</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1231877721.674099</v>
+        <v>1460458770.698888</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1641862793743487</v>
+        <v>0.151058291065864</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04083282401510435</v>
+        <v>0.03591637993539275</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3371272315.267053</v>
+        <v>5233518376.739005</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1305339070476054</v>
+        <v>0.1269162844790397</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04788375535045272</v>
+        <v>0.04746514436867529</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2420909229.652657</v>
+        <v>3707013451.32228</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1787252491139567</v>
+        <v>0.1953517533957028</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0312544567688846</v>
+        <v>0.0343679958059644</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4862048314.248541</v>
+        <v>3248383818.625869</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1547224423250051</v>
+        <v>0.1341437103121099</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05161144721983461</v>
+        <v>0.03209842566154007</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3270439870.324803</v>
+        <v>3009918696.799164</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1796630125362407</v>
+        <v>0.1447416392732354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01960794905676732</v>
+        <v>0.01999126634531605</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1425424545.499974</v>
+        <v>1593333895.78918</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1066697572073363</v>
+        <v>0.1646015015475435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05146677864949409</v>
+        <v>0.04230025056771829</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3570892768.890097</v>
+        <v>2940346788.393127</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1753268416478803</v>
+        <v>0.1751869962635033</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02566727864728067</v>
+        <v>0.021155775464047</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1802785420.706584</v>
+        <v>1427898103.083408</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1388656462129438</v>
+        <v>0.1369624208145422</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03722461135749051</v>
+        <v>0.0299073680776609</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3809606473.436585</v>
+        <v>3442987413.455032</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1217150833439084</v>
+        <v>0.1192751770046682</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0428108690761892</v>
+        <v>0.04668029445119884</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3672444655.632999</v>
+        <v>2984198870.820397</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1455204277330791</v>
+        <v>0.1264555664150981</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03268711461466078</v>
+        <v>0.03081033732801451</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3404797554.195972</v>
+        <v>2879794083.641879</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1319926108673294</v>
+        <v>0.1415879050986144</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03294468890778422</v>
+        <v>0.02928516764389813</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1497717472.09407</v>
+        <v>1647966636.390996</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1635877577917409</v>
+        <v>0.1494379987135604</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0348435813931602</v>
+        <v>0.03910972888787691</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5031883116.352911</v>
+        <v>5555918065.756305</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07403044153132612</v>
+        <v>0.06940821986509929</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03206331553435136</v>
+        <v>0.0440584172559696</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5161245649.068971</v>
+        <v>3773179538.117419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1577563890052483</v>
+        <v>0.1234262548478175</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02531950412494759</v>
+        <v>0.02690884837882141</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5355689287.788037</v>
+        <v>4361376386.41295</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1093894647360478</v>
+        <v>0.1666745096810722</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03164814688404378</v>
+        <v>0.02905348961037387</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5456268251.399076</v>
+        <v>4610823141.929002</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1027420422960837</v>
+        <v>0.147871581240652</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03987755075646293</v>
+        <v>0.03583260913186862</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2943017469.387735</v>
+        <v>3277892158.20061</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0817957272071617</v>
+        <v>0.09641436303681145</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03361687044817922</v>
+        <v>0.0319549565915906</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5326482013.981086</v>
+        <v>4148347728.638297</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1415582090948407</v>
+        <v>0.1063488522612942</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04804077420570058</v>
+        <v>0.0312217824598463</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2146335640.678123</v>
+        <v>2262807099.973783</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1463151591659441</v>
+        <v>0.1642575765329782</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04335755795829842</v>
+        <v>0.03791563122091071</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2501155523.283293</v>
+        <v>3339251622.919445</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1015795745648791</v>
+        <v>0.06893804026626016</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04317525582035877</v>
+        <v>0.04558796008171468</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3986733355.464113</v>
+        <v>4990603081.498531</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1774191461152248</v>
+        <v>0.1480108851438155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03379909660228476</v>
+        <v>0.0233353385273912</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1656458581.023189</v>
+        <v>1835235730.596441</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06781182712310467</v>
+        <v>0.06594201759151434</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03236184451241048</v>
+        <v>0.05056229632508661</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2477678695.955332</v>
+        <v>3128373044.501839</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09802814034719248</v>
+        <v>0.08699221006155657</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05126857198204627</v>
+        <v>0.04710465918287415</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3163241276.461326</v>
+        <v>3974246044.792099</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1503037347715965</v>
+        <v>0.1459097893954371</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03304117668191811</v>
+        <v>0.03155199419515288</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1791202708.356924</v>
+        <v>2091019327.285062</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1311608487685372</v>
+        <v>0.1458437229096895</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03312090454900064</v>
+        <v>0.03048662114061144</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5328078910.377786</v>
+        <v>3870301874.522197</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1133831986589428</v>
+        <v>0.1242201507345686</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02201013239287273</v>
+        <v>0.02193516061633491</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1535964541.845776</v>
+        <v>1739223597.612777</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1261818258340354</v>
+        <v>0.1843331474903045</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01932134382311633</v>
+        <v>0.02218930988602623</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3564311841.343469</v>
+        <v>3631790608.256327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1036654226958533</v>
+        <v>0.1304269860048768</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03968810099512984</v>
+        <v>0.03688291192672522</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1890057275.960323</v>
+        <v>1300465794.807274</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1489758390087983</v>
+        <v>0.1506473987362374</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03529575776782213</v>
+        <v>0.03526080526647749</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5345881189.819053</v>
+        <v>3688865651.121864</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08415244386183557</v>
+        <v>0.07871209086648237</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0242938122839922</v>
+        <v>0.03570493412016192</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3593299530.683566</v>
+        <v>4197728361.752547</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1048500653581756</v>
+        <v>0.0894124396887402</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02234248149334576</v>
+        <v>0.02502971365641567</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4644008167.278904</v>
+        <v>3541992390.387434</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2040803753465526</v>
+        <v>0.1399797024513992</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02258062070391679</v>
+        <v>0.01844750269982753</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1632010295.431334</v>
+        <v>2177930795.676811</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1448193607854841</v>
+        <v>0.1097775772722304</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03678793659232004</v>
+        <v>0.03665904367224931</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2143236068.315697</v>
+        <v>2154326848.577166</v>
       </c>
       <c r="F84" t="n">
-        <v>0.120084274344483</v>
+        <v>0.1178177337848893</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04942772946679143</v>
+        <v>0.04077303024555545</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2702866210.232945</v>
+        <v>3273898731.711118</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1304984757726017</v>
+        <v>0.1717639070766063</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05405383405421729</v>
+        <v>0.04534066007379793</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1938542337.272429</v>
+        <v>1729104465.586289</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1661731316051587</v>
+        <v>0.1337670535605325</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01822701151342013</v>
+        <v>0.02107542598338874</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028934402.423774</v>
+        <v>915301952.6874443</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1488370843797645</v>
+        <v>0.1761362319377677</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04218190241992539</v>
+        <v>0.03683284253545203</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2687475988.210958</v>
+        <v>2656054220.111162</v>
       </c>
       <c r="F88" t="n">
-        <v>0.174795225265131</v>
+        <v>0.1267224742383448</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02742256265996519</v>
+        <v>0.02840847178490951</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3207287687.857128</v>
+        <v>2951154711.02716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1456973339486965</v>
+        <v>0.1544493406827451</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03299866892062897</v>
+        <v>0.02830506769507985</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1583151972.666214</v>
+        <v>1388515051.609899</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1277376610681421</v>
+        <v>0.1353045105423708</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03642258473066142</v>
+        <v>0.04499931226218875</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1675495528.612414</v>
+        <v>1406146681.373962</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1203248125756812</v>
+        <v>0.1665863882982329</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04474317887156706</v>
+        <v>0.05757110235674245</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1834955126.976395</v>
+        <v>2678090904.400422</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08880226095189227</v>
+        <v>0.1019323166389639</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04466057541229045</v>
+        <v>0.04634284475812135</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3718716820.360785</v>
+        <v>3488118600.197852</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1352112190510338</v>
+        <v>0.09618342884775405</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0537208253490625</v>
+        <v>0.0331504728801198</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1757362310.598722</v>
+        <v>1846135834.992221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1500500517373049</v>
+        <v>0.1475078859085765</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03998866475964535</v>
+        <v>0.02921725940856476</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2040233820.43579</v>
+        <v>2121845074.569484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1062384449610701</v>
+        <v>0.1170049861096723</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05139151937385296</v>
+        <v>0.04291511098710855</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2227392459.720002</v>
+        <v>2210451798.262616</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1369600113866497</v>
+        <v>0.1343471025868091</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03642810176615579</v>
+        <v>0.0376611099415376</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3709710630.041292</v>
+        <v>5359567486.896519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.15318311876838</v>
+        <v>0.1490183805297569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02174084787618512</v>
+        <v>0.02138529298518645</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3877154756.686779</v>
+        <v>3927499499.709204</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1034620976798489</v>
+        <v>0.1254624626506513</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03064930648625593</v>
+        <v>0.02513748336040536</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3294810373.45008</v>
+        <v>2518252164.957959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1183869717047165</v>
+        <v>0.09986972794189074</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03121201701746194</v>
+        <v>0.0285823112087652</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3446247856.695843</v>
+        <v>3033503384.314899</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1437028117426348</v>
+        <v>0.1800700790129944</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02016970069881687</v>
+        <v>0.02579710909978783</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3067301614.851508</v>
+        <v>2331676911.760771</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1734661655446886</v>
+        <v>0.1443511470165403</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04538399826509242</v>
+        <v>0.04478869051557773</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1683988254.576964</v>
+        <v>2303190650.469075</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1001285232228016</v>
+        <v>0.07711903649544878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03812558599731125</v>
+        <v>0.03835630576717131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2157702725.353041</v>
+        <v>2414292265.184471</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1435747063267876</v>
+        <v>0.1475545803893933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03533146015374271</v>
+        <v>0.04327620835976548</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5201321590.573681</v>
+        <v>4582620668.223313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1231390926347989</v>
+        <v>0.1409405024541512</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02860997473858395</v>
+        <v>0.02671656955852143</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.1076929222468</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4036439916.101499</v>
+        <v>3490378960.16145</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1039803620540932</v>
+        <v>0.1008760982544066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04320389180929982</v>
+        <v>0.03762557033194871</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>159.9919549130132</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2459103653.982882</v>
+        <v>2158437005.049482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1358361786111334</v>
+        <v>0.1107688102482604</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03982846938225938</v>
+        <v>0.04043026815841903</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3069052394.479743</v>
+        <v>3087584045.621109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06379146245478311</v>
+        <v>0.07108012740394309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04384940124869739</v>
+        <v>0.04893262844867897</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3256297505.62686</v>
+        <v>2857881725.574044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1804300468833827</v>
+        <v>0.154102700524105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03344454855152878</v>
+        <v>0.02082533003111707</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2043392873.496021</v>
+        <v>2009002748.965572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1854180898275517</v>
+        <v>0.1645384669378528</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03224939467230015</v>
+        <v>0.03220811946526725</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4922824692.303323</v>
+        <v>4867536080.520737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1670952716702994</v>
+        <v>0.1454955418977003</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05187240202611716</v>
+        <v>0.03828389897542486</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.2149376081961</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3845906531.975403</v>
+        <v>4044407488.304511</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1410765396858627</v>
+        <v>0.1309999094327321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03458346734817687</v>
+        <v>0.03364797402212231</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3114219176.358608</v>
+        <v>2340982846.573722</v>
       </c>
       <c r="F12" t="n">
-        <v>0.140002284386387</v>
+        <v>0.1536638868934191</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04283937633222749</v>
+        <v>0.04808430171171447</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5197090062.920002</v>
+        <v>3562709089.883722</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09550469888854465</v>
+        <v>0.08686296083312567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0260400192581478</v>
+        <v>0.02630709687553028</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>157.5304946599551</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3791211638.361634</v>
+        <v>2350397242.145425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1290113885363229</v>
+        <v>0.1642768947583266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04197451724342855</v>
+        <v>0.02783185958130045</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1686029761.227468</v>
+        <v>1215385498.439409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07996239188594999</v>
+        <v>0.09577614880917522</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04047050629357136</v>
+        <v>0.03694020015811095</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2871898812.773665</v>
+        <v>2609614908.752631</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140583477388581</v>
+        <v>0.09104102807743142</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04900543829694662</v>
+        <v>0.03735312057881369</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3503402872.195954</v>
+        <v>3669691832.541189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1296242783760751</v>
+        <v>0.1246568736101799</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03562205503390658</v>
+        <v>0.03409271683249176</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2621745632.90428</v>
+        <v>3453110180.15207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1302361897920901</v>
+        <v>0.1437239786356853</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02719191055201056</v>
+        <v>0.0244209324039721</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1314232568.642625</v>
+        <v>967919873.9710298</v>
       </c>
       <c r="F19" t="n">
-        <v>0.120994778302816</v>
+        <v>0.1620862230482253</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02224866029789686</v>
+        <v>0.0251380846271764</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1805324630.764219</v>
+        <v>2798180777.774663</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1398922634016504</v>
+        <v>0.138685367481268</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02876122399371423</v>
+        <v>0.02547427722355441</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2075507424.498924</v>
+        <v>2101248139.18653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08435550342865351</v>
+        <v>0.07706624704967557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03231640253546565</v>
+        <v>0.02774653952839025</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3417132755.523184</v>
+        <v>2754800790.123999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1433276594884584</v>
+        <v>0.1040768879411807</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05179676431112733</v>
+        <v>0.04151276914429736</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420712740.37483</v>
+        <v>1040307204.370758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1442537829565782</v>
+        <v>0.1516942487192088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04954669330841656</v>
+        <v>0.04930948647118003</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3739514445.743761</v>
+        <v>3943063955.199479</v>
       </c>
       <c r="F24" t="n">
-        <v>0.134391850204785</v>
+        <v>0.1237824796455881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02599991704927585</v>
+        <v>0.02806538743558644</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>896770056.3259122</v>
+        <v>1257561286.48118</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08953748133127776</v>
+        <v>0.1217219641598998</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03089913534387981</v>
+        <v>0.02390780971924884</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1281191242.519578</v>
+        <v>1326067465.286478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1039303872590008</v>
+        <v>0.1245925263335052</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03235057941004607</v>
+        <v>0.03272379027334896</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3450881851.283724</v>
+        <v>4452190768.386865</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1556290821406444</v>
+        <v>0.1352403620661405</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01727736403654848</v>
+        <v>0.01691091473774969</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3163413658.874546</v>
+        <v>3576553665.683712</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1279349704061183</v>
+        <v>0.1418098848521443</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04543342617054982</v>
+        <v>0.03821485626610878</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>156.953610319224</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5609704303.089056</v>
+        <v>4135554433.077527</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1447803858888957</v>
+        <v>0.09722330113569851</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02884268053479356</v>
+        <v>0.04393552552910596</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0792865286565</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2074181889.008494</v>
+        <v>1832455358.379706</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041444423879356</v>
+        <v>0.09164684745424068</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02712629886297904</v>
+        <v>0.02938947466051215</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1377810858.754098</v>
+        <v>1057310593.861386</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06858406151283546</v>
+        <v>0.1097809694261181</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03928527090156425</v>
+        <v>0.04755213487621626</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1403948899.691185</v>
+        <v>1439460729.627879</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1011916464218036</v>
+        <v>0.08681515034126772</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03099803254201667</v>
+        <v>0.0260524809811595</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2451518102.912957</v>
+        <v>2654605387.787023</v>
       </c>
       <c r="F33" t="n">
-        <v>0.186259788499686</v>
+        <v>0.1705558292446198</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05576370973843533</v>
+        <v>0.05013301432341263</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1000996037.866791</v>
+        <v>1217860455.039689</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07604051254519893</v>
+        <v>0.0994784950466033</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02100211750969031</v>
+        <v>0.02700406658976227</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1153687126.384075</v>
+        <v>1166527529.440163</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1160126805950023</v>
+        <v>0.1065120525926141</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0369602540792294</v>
+        <v>0.03442914333976637</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2788415434.864747</v>
+        <v>2800718792.843479</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1541832669271604</v>
+        <v>0.1764724435755917</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0175149072860339</v>
+        <v>0.01947765260060223</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2936679668.954493</v>
+        <v>2420769726.181836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09717595163426611</v>
+        <v>0.08321349994409721</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03917175569260046</v>
+        <v>0.0395279800049517</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1671903586.08021</v>
+        <v>1978132339.634781</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1218679308762844</v>
+        <v>0.1116811785096897</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02795990806503905</v>
+        <v>0.0300211627871915</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1793214524.726934</v>
+        <v>1361442396.207887</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1446349763121587</v>
+        <v>0.1437462903606625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03230655563867486</v>
+        <v>0.0234271150989041</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1274298419.255019</v>
+        <v>1789416383.382257</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1031675862328941</v>
+        <v>0.1043479961012143</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04358446749433256</v>
+        <v>0.04063022411200802</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2842967748.841234</v>
+        <v>1942440556.277484</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1133036725647849</v>
+        <v>0.1089381322708363</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04154985136803115</v>
+        <v>0.03330827153920712</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3591498845.829353</v>
+        <v>2832924813.98456</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1185443365275127</v>
+        <v>0.09905662135713526</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04042076868306166</v>
+        <v>0.03417128924219357</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3045325021.838453</v>
+        <v>2265315045.877905</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1858243483025127</v>
+        <v>0.1850361832353553</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02313106316951245</v>
+        <v>0.01837656366249249</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1766833987.536292</v>
+        <v>1861305765.192641</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09634773884974558</v>
+        <v>0.08917708485307216</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02832522369530271</v>
+        <v>0.03715090884896747</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1873600630.009479</v>
+        <v>2054282616.470552</v>
       </c>
       <c r="F45" t="n">
-        <v>0.154935335844925</v>
+        <v>0.1615233316078567</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03543287896719129</v>
+        <v>0.05147459449315703</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3926382925.946911</v>
+        <v>5296978458.981086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.113373788985235</v>
+        <v>0.1356961929046263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05774036967037519</v>
+        <v>0.04151484398971402</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4670501275.146169</v>
+        <v>3513108246.248762</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1302190222578248</v>
+        <v>0.1503665492053622</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04573319055960421</v>
+        <v>0.05264916288157917</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4426699391.946234</v>
+        <v>3831326600.015401</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102041606284739</v>
+        <v>0.1063073436371884</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03453840383898772</v>
+        <v>0.0319185506621434</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>180.8249222889674</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1836347278.405663</v>
+        <v>1963804864.539256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1654089097535409</v>
+        <v>0.1341464560125085</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03488095190769713</v>
+        <v>0.03887440309841791</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3430499131.629971</v>
+        <v>3659423582.850099</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1106617644326383</v>
+        <v>0.128621022765964</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03344310804701381</v>
+        <v>0.04717861216617359</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1460458770.698888</v>
+        <v>1531342768.436592</v>
       </c>
       <c r="F51" t="n">
-        <v>0.151058291065864</v>
+        <v>0.1381332547469603</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03591637993539275</v>
+        <v>0.046875216742454</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5233518376.739005</v>
+        <v>4967866487.797574</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1269162844790397</v>
+        <v>0.088870482752646</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04746514436867529</v>
+        <v>0.04651034037665777</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.71038723066</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3707013451.32228</v>
+        <v>3127804666.740817</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1953517533957028</v>
+        <v>0.1487461372132684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0343679958059644</v>
+        <v>0.0250459013757698</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3248383818.625869</v>
+        <v>4324053628.143844</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1341437103121099</v>
+        <v>0.132600678269686</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03209842566154007</v>
+        <v>0.03438990201362791</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3009918696.799164</v>
+        <v>3566453535.172326</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1447416392732354</v>
+        <v>0.1503341718999606</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01999126634531605</v>
+        <v>0.0240056858688548</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1593333895.78918</v>
+        <v>1718287502.432662</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1646015015475435</v>
+        <v>0.1543475000112453</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04230025056771829</v>
+        <v>0.04587431060953286</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2442,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2940346788.393127</v>
+        <v>3404022728.181646</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1751869962635033</v>
+        <v>0.1373750586559186</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021155775464047</v>
+        <v>0.02327894905792339</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1427898103.083408</v>
+        <v>1855016285.489388</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1369624208145422</v>
+        <v>0.1856855303902363</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0299073680776609</v>
+        <v>0.03016958983992584</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3442987413.455032</v>
+        <v>3768065395.473193</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1192751770046682</v>
+        <v>0.1057976567197866</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04668029445119884</v>
+        <v>0.04090454391415185</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>155.4158244461674</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2984198870.820397</v>
+        <v>3046978145.61103</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264555664150981</v>
+        <v>0.1965093518442755</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03081033732801451</v>
+        <v>0.03347680514823499</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2879794083.641879</v>
+        <v>3151137532.811224</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1415879050986144</v>
+        <v>0.1357987193269143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02928516764389813</v>
+        <v>0.03259052606377014</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1647966636.390996</v>
+        <v>1560379409.490457</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1494379987135604</v>
+        <v>0.129601600775051</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03910972888787691</v>
+        <v>0.04950860504232057</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5555918065.756305</v>
+        <v>4732530961.714014</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06940821986509929</v>
+        <v>0.08350527732446464</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0440584172559696</v>
+        <v>0.04213746411862417</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.5306753092351</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3773179538.117419</v>
+        <v>3529101887.520798</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1234262548478175</v>
+        <v>0.1312174058979745</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02690884837882141</v>
+        <v>0.02996083294717644</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>146.6211134689385</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4361376386.41295</v>
+        <v>4235182293.600338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1666745096810722</v>
+        <v>0.122965205598995</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02905348961037387</v>
+        <v>0.02337200195952032</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.7024127248199</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4610823141.929002</v>
+        <v>4497428722.823981</v>
       </c>
       <c r="F66" t="n">
-        <v>0.147871581240652</v>
+        <v>0.1260821930817703</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03583260913186862</v>
+        <v>0.04703483139310272</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.8445630469777</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3277892158.20061</v>
+        <v>2638018374.51984</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09641436303681145</v>
+        <v>0.07118161841698332</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0319549565915906</v>
+        <v>0.05038559906050284</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4148347728.638297</v>
+        <v>4198534852.478794</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1063488522612942</v>
+        <v>0.1322799591725653</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0312217824598463</v>
+        <v>0.0475360470727855</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.2608481264112</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2262807099.973783</v>
+        <v>2172202602.555936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1642575765329782</v>
+        <v>0.1157317342058511</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03791563122091071</v>
+        <v>0.03966757006650612</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3339251622.919445</v>
+        <v>3373649603.508231</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06893804026626016</v>
+        <v>0.08368171326130959</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04558796008171468</v>
+        <v>0.03652664106741071</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4990603081.498531</v>
+        <v>5265038036.953934</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1480108851438155</v>
+        <v>0.1242599905242074</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0233353385273912</v>
+        <v>0.03008367596951718</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1835235730.596441</v>
+        <v>1580242385.474284</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06594201759151434</v>
+        <v>0.09267536682721675</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05056229632508661</v>
+        <v>0.03481382721756822</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3128373044.501839</v>
+        <v>2481704885.193281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08699221006155657</v>
+        <v>0.06952369674412681</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04710465918287415</v>
+        <v>0.04408773134933682</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3974246044.792099</v>
+        <v>2620621808.422302</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1459097893954371</v>
+        <v>0.128478512023802</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03155199419515288</v>
+        <v>0.03374535879023871</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2091019327.285062</v>
+        <v>1697985030.473495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1458437229096895</v>
+        <v>0.143075045064426</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03048662114061144</v>
+        <v>0.02657486962926817</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3870301874.522197</v>
+        <v>3613289438.610269</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1242201507345686</v>
+        <v>0.1205155423214224</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02193516061633491</v>
+        <v>0.02782407174919952</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>130.3537061953248</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1739223597.612777</v>
+        <v>1425547247.551104</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1843331474903045</v>
+        <v>0.1744762448996281</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02218930988602623</v>
+        <v>0.03021866905912942</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3631790608.256327</v>
+        <v>4045076305.898905</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304269860048768</v>
+        <v>0.08546546787223629</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03688291192672522</v>
+        <v>0.04159612814493292</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1300465794.807274</v>
+        <v>1448140839.448952</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1506473987362374</v>
+        <v>0.1520612631217702</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03526080526647749</v>
+        <v>0.03183934907356416</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3688865651.121864</v>
+        <v>3737224913.562293</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07871209086648237</v>
+        <v>0.08748490371832056</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03570493412016192</v>
+        <v>0.02952648489488344</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3296,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4197728361.752547</v>
+        <v>3852615025.745578</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0894124396887402</v>
+        <v>0.1261003545161629</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02502971365641567</v>
+        <v>0.02030520163630163</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3541992390.387434</v>
+        <v>4754593012.964111</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1399797024513992</v>
+        <v>0.182559349124346</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01844750269982753</v>
+        <v>0.02810212713769746</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.5005390992333</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2177930795.676811</v>
+        <v>1703707559.868276</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1097775772722304</v>
+        <v>0.1563446396347726</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03665904367224931</v>
+        <v>0.0379287224156724</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2154326848.577166</v>
+        <v>1661424343.92164</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1178177337848893</v>
+        <v>0.1138429122441898</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04077303024555545</v>
+        <v>0.03762870088100877</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3273898731.711118</v>
+        <v>3435510889.175038</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1717639070766063</v>
+        <v>0.1116398347283392</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04534066007379793</v>
+        <v>0.03973629064069419</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1729104465.586289</v>
+        <v>1956144694.505657</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1337670535605325</v>
+        <v>0.1444031978428549</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02107542598338874</v>
+        <v>0.02148730889252991</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>915301952.6874443</v>
+        <v>1361108669.07015</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1761362319377677</v>
+        <v>0.1295037515662187</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03683284253545203</v>
+        <v>0.02853952380452388</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3543,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2656054220.111162</v>
+        <v>3275313865.545744</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1267224742383448</v>
+        <v>0.1284025667260394</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02840847178490951</v>
+        <v>0.03854111678303403</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2951154711.02716</v>
+        <v>2152811382.70586</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544493406827451</v>
+        <v>0.1477938804809831</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02830506769507985</v>
+        <v>0.02660826709238882</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1388515051.609899</v>
+        <v>1452926261.163063</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1353045105423708</v>
+        <v>0.1052218955707731</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04499931226218875</v>
+        <v>0.05566620513283198</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1406146681.373962</v>
+        <v>1507815513.849272</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1665863882982329</v>
+        <v>0.1367347539496483</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05757110235674245</v>
+        <v>0.05341270059545938</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2678090904.400422</v>
+        <v>2139551869.295577</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1019323166389639</v>
+        <v>0.09386594654386052</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04634284475812135</v>
+        <v>0.03400257052887042</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3488118600.197852</v>
+        <v>3431767141.190742</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09618342884775405</v>
+        <v>0.08965154456251018</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0331504728801198</v>
+        <v>0.04640390012856936</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>136.6726303465819</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1846135834.992221</v>
+        <v>1770946731.567221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1475078859085765</v>
+        <v>0.1274799991755953</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02921725940856476</v>
+        <v>0.04023625516038166</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2121845074.569484</v>
+        <v>2225297368.336522</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1170049861096723</v>
+        <v>0.09829502039670068</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04291511098710855</v>
+        <v>0.0393432532209284</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2210451798.262616</v>
+        <v>1959196051.306858</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1343471025868091</v>
+        <v>0.08905916710231868</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0376611099415376</v>
+        <v>0.0418409854042422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5359567486.896519</v>
+        <v>4196527745.013798</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1490183805297569</v>
+        <v>0.1193915944276435</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02138529298518645</v>
+        <v>0.02389068039438955</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5820951261541</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3927499499.709204</v>
+        <v>2489407067.736283</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1254624626506513</v>
+        <v>0.1255616181146358</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02513748336040536</v>
+        <v>0.02279479137702385</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>67.51994383625336</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2518252164.957959</v>
+        <v>3104292544.367251</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09986972794189074</v>
+        <v>0.1055475119110138</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0285823112087652</v>
+        <v>0.02625982260000721</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3033503384.314899</v>
+        <v>4224665869.793926</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1800700790129944</v>
+        <v>0.1215638490834448</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579710909978783</v>
+        <v>0.01855272764552245</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>200.0969869810171</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2331676911.760771</v>
+        <v>3329467410.818929</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1443511470165403</v>
+        <v>0.2111295544675142</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04478869051557773</v>
+        <v>0.04381922462117135</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
